--- a/Psomagen_Viome/manually_extracted_analysis/Viome-Supplement_Recommendations.xlsx
+++ b/Psomagen_Viome/manually_extracted_analysis/Viome-Supplement_Recommendations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WGS_Exome_Analysis\My_Veritas_WGS\Psomagen_Viome\manually_extracted_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9EA7A4-B35B-4EFA-B2B2-78308B39234F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AD9F57-94DB-4610-AEDB-F534B1F25BD9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5475" yWindow="2475" windowWidth="28320" windowHeight="12645" xr2:uid="{5AEC57D3-D400-4D5F-89D1-344F3DB7D3FE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5AEC57D3-D400-4D5F-89D1-344F3DB7D3FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1138,14 +1138,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1219,14 +1212,14 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1561,8 +1554,8 @@
   <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1595,8 +1588,8 @@
       <c r="A2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="8" t="s">
         <v>64</v>
       </c>
@@ -2927,6 +2920,6 @@
     <sortCondition ref="A73:A95"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>